--- a/data/cade.xlsx
+++ b/data/cade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/R/Rprojetos/cade/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{45607CD5-4408-42FD-A6AA-221CF2D0A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96BBB82-3016-40D7-B90D-27BF39C47C7B}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{45607CD5-4408-42FD-A6AA-221CF2D0A85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6A62F9-E39D-40A2-9A0F-03BF2B066301}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="540" windowWidth="37305" windowHeight="14940" xr2:uid="{793D19A5-87D9-4182-BBD0-CF692BC6FA0A}"/>
+    <workbookView xWindow="29895" yWindow="540" windowWidth="37305" windowHeight="14940" xr2:uid="{793D19A5-87D9-4182-BBD0-CF692BC6FA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="database_adj" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10513" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10512" uniqueCount="255">
   <si>
     <t>Número do Processo</t>
   </si>
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB125758-1EBA-4AC7-ACFE-2F29B93B9C42}">
   <dimension ref="A1:U188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5275,9 +5275,6 @@
       </c>
       <c r="C66" t="s">
         <v>24</v>
-      </c>
-      <c r="D66" t="s">
-        <v>28</v>
       </c>
       <c r="E66" t="s">
         <v>37</v>
